--- a/WorkingGroupFollowUp.xlsx
+++ b/WorkingGroupFollowUp.xlsx
@@ -47223,17 +47223,7 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <AresNumber xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </AresNumber>
-    <Unit_Dir0_tax xmlns="http://schemas.microsoft.com/sharepoint/v3/fields">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </Unit_Dir0_tax>
-    <TaxCatchAll xmlns="f35f5637-fabd-4565-b1d5-90ce7b582d39"/>
-    <Document_x0020_Description xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
+  <documentManagement/>
 </p:properties>
 </file>
 
@@ -47262,22 +47252,22 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="OP Document" ma:contentTypeID="0x010100AAE994419BC24CED8BF9A98B0A371F990017A88DF331AD644593F8539DE8063C57" ma:contentTypeVersion="62" ma:contentTypeDescription="Create in this document library a blank document" ma:contentTypeScope="" ma:versionID="3593b262fa03f1d9b866c55d4b8338ad">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns3="f35f5637-fabd-4565-b1d5-90ce7b582d39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="419bf95d33474cc0abbef48644714d41" ns1:_="" ns2:_="" ns3:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <xsd:import namespace="f35f5637-fabd-4565-b1d5-90ce7b582d39"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="6" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="cb8996f3c460f686c4ceead8a704479d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="319a6b9d4f2405982df31065c3fa6c19" ns2:_="" ns3:_="">
+    <xsd:import namespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
+    <xsd:import namespace="56068758-a483-4a4b-84d7-1662caf98f10"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns1:AresNumber" minOccurs="0"/>
-                <xsd:element ref="ns1:Document_x0020_Description" minOccurs="0"/>
-                <xsd:element ref="ns2:Unit_Dir0_tax" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAllLabel" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -47285,64 +47275,60 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="AresNumber" ma:index="8" nillable="true" ma:displayName="Ares number" ma:description="The number of this document in ARES" ma:format="Hyperlink" ma:internalName="AresNumber">
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="56068758-a483-4a4b-84d7-1662caf98f10" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
-          <xsd:extension base="dms:URL">
+          <xsd:extension base="dms:UserMulti">
             <xsd:sequence>
-              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
-              <xsd:element name="Description" type="xsd:string" nillable="true"/>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
             </xsd:sequence>
           </xsd:extension>
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="Document_x0020_Description" ma:index="9" nillable="true" ma:displayName="Doc. description" ma:description="A general description about the current document" ma:internalName="DocDescription">
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Text">
+        <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3/fields" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="Unit_Dir0_tax" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="Unit_Dir0_tax" ma:taxonomyFieldName="Unit_Directorates_tax" ma:displayName="Unit and Directorates" ma:fieldId="{6b607fa4-dfae-4254-9f92-65a5b8fe44e9}" ma:sspId="c2ecfd70-f0a7-4227-9d3f-c0584232298e" ma:termSetId="7d1f3413-d8cf-4e24-8496-d417936084da" ma:anchorId="0b0c2009-ebf3-4690-9416-0db79d357c27" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f35f5637-fabd-4565-b1d5-90ce7b582d39" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="12" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e477164e-60d4-4fa4-bb6f-3a4946498adf}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="0be604ac-4ae5-454f-b8cb-86fed9429419">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAllLabel" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column1" ma:hidden="true" ma:list="{e477164e-60d4-4fa4-bb6f-3a4946498adf}" ma:internalName="TaxCatchAllLabel" ma:readOnly="true" ma:showField="CatchAllDataLabel" ma:web="0be604ac-4ae5-454f-b8cb-86fed9429419">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -47354,11 +47340,11 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="10" ma:displayName="Keywords"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
         <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
         <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -47487,21 +47473,5 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C5654C0-3855-420F-8C22-DF4B544C7F47}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="f35f5637-fabd-4565-b1d5-90ce7b582d39"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A9BF502-B42C-450C-B368-3F1DB4D01843}"/>
 </file>